--- a/0_data/scale_samples.xlsx
+++ b/0_data/scale_samples.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jamescookuniversity-my.sharepoint.com/personal/benjamin_cresswell_jcu_edu_au/Documents/Ben PhD/Data &amp; analysis/Keppels/Keppels_subsampling/0_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_678DB8A649AB72816156770DBFD94DFD4E42D0E3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77B228B3-09AF-AF48-B0AE-C23E2F3E00A9}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="15000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scale_samples.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">scale_samples.csv!$A$1:$F$1</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="343">
   <si>
     <t>INDIVID_ID</t>
   </si>
@@ -922,13 +931,139 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>P.ad_5062</t>
+  </si>
+  <si>
+    <t>P.ad_5076</t>
+  </si>
+  <si>
+    <t>P.ad_5005</t>
+  </si>
+  <si>
+    <t>P.ad_5065</t>
+  </si>
+  <si>
+    <t>P.ad_5078</t>
+  </si>
+  <si>
+    <t>P.ad_5461</t>
+  </si>
+  <si>
+    <t>P.ad_5515</t>
+  </si>
+  <si>
+    <t>P.ad_5487</t>
+  </si>
+  <si>
+    <t>P.ad_5506</t>
+  </si>
+  <si>
+    <t>P.ad_5546</t>
+  </si>
+  <si>
+    <t>P.ad_5213</t>
+  </si>
+  <si>
+    <t>P.ad_5653</t>
+  </si>
+  <si>
+    <t>P.ad_5586</t>
+  </si>
+  <si>
+    <t>P.ad_5214</t>
+  </si>
+  <si>
+    <t>P.ad_5610</t>
+  </si>
+  <si>
+    <t>P.ad_5151</t>
+  </si>
+  <si>
+    <t>P.ad_5798</t>
+  </si>
+  <si>
+    <t>P.ad_5240</t>
+  </si>
+  <si>
+    <t>P.ad_5225</t>
+  </si>
+  <si>
+    <t>P.ad_5162</t>
+  </si>
+  <si>
+    <t>P.ad_5196</t>
+  </si>
+  <si>
+    <t>From 02_E01</t>
+  </si>
+  <si>
+    <t>From 02_F02</t>
+  </si>
+  <si>
+    <t>From 02_A04</t>
+  </si>
+  <si>
+    <t>From 02_E04</t>
+  </si>
+  <si>
+    <t>From 02_F04</t>
+  </si>
+  <si>
+    <t>From 05_E07</t>
+  </si>
+  <si>
+    <t>From 05_H09</t>
+  </si>
+  <si>
+    <t>From 05_F12</t>
+  </si>
+  <si>
+    <t>From 05_G12</t>
+  </si>
+  <si>
+    <t>From 06_C01</t>
+  </si>
+  <si>
+    <t>From 03_G02</t>
+  </si>
+  <si>
+    <t>From 03_G01</t>
+  </si>
+  <si>
+    <t>From 06_H03</t>
+  </si>
+  <si>
+    <t>From 06_E04</t>
+  </si>
+  <si>
+    <t>From 06_F08</t>
+  </si>
+  <si>
+    <t>From 03_C04</t>
+  </si>
+  <si>
+    <t>From 07_G04</t>
+  </si>
+  <si>
+    <t>From 03_H09</t>
+  </si>
+  <si>
+    <t>From 03_G11</t>
+  </si>
+  <si>
+    <t>From 03_C12</t>
+  </si>
+  <si>
+    <t>From 03_E12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -943,6 +1078,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -952,7 +1093,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -975,20 +1116,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1313,14 +1475,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F196"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="M210" sqref="M31:M210"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
@@ -1330,7 +1492,7 @@
     <col min="6" max="6" width="45.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1350,7 +1512,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1366,7 +1528,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1382,7 +1544,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1398,7 +1560,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1414,7 +1576,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1430,7 +1592,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1446,7 +1608,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1462,7 +1624,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1478,7 +1640,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1494,7 +1656,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -1510,7 +1672,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -1526,7 +1688,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1542,7 +1704,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -1558,7 +1720,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1574,7 +1736,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -1590,7 +1752,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -1606,7 +1768,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -1622,7 +1784,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -1638,7 +1800,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -1654,7 +1816,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
@@ -1670,7 +1832,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
@@ -1686,7 +1848,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>48</v>
       </c>
@@ -1702,7 +1864,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -1718,7 +1880,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
@@ -1734,7 +1896,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1750,7 +1912,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
@@ -1766,7 +1928,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>58</v>
       </c>
@@ -1782,7 +1944,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>60</v>
       </c>
@@ -1798,7 +1960,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
@@ -1814,7 +1976,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>64</v>
       </c>
@@ -1830,7 +1992,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>66</v>
       </c>
@@ -1846,7 +2008,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>68</v>
       </c>
@@ -1862,7 +2024,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>70</v>
       </c>
@@ -1878,7 +2040,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>72</v>
       </c>
@@ -1894,7 +2056,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>74</v>
       </c>
@@ -1910,7 +2072,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>76</v>
       </c>
@@ -1926,7 +2088,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>78</v>
       </c>
@@ -1942,7 +2104,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>80</v>
       </c>
@@ -1958,7 +2120,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>82</v>
       </c>
@@ -1974,7 +2136,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>84</v>
       </c>
@@ -1990,7 +2152,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>86</v>
       </c>
@@ -2006,7 +2168,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>88</v>
       </c>
@@ -2022,7 +2184,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>90</v>
       </c>
@@ -2038,7 +2200,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>92</v>
       </c>
@@ -2054,7 +2216,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>94</v>
       </c>
@@ -2070,7 +2232,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>96</v>
       </c>
@@ -2086,7 +2248,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>98</v>
       </c>
@@ -2102,7 +2264,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>100</v>
       </c>
@@ -2118,7 +2280,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>102</v>
       </c>
@@ -2134,7 +2296,7 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>104</v>
       </c>
@@ -2150,7 +2312,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>106</v>
       </c>
@@ -2166,7 +2328,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>108</v>
       </c>
@@ -2182,7 +2344,7 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>110</v>
       </c>
@@ -2198,7 +2360,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>112</v>
       </c>
@@ -2214,7 +2376,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>114</v>
       </c>
@@ -2230,7 +2392,7 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>116</v>
       </c>
@@ -2246,7 +2408,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>118</v>
       </c>
@@ -2262,7 +2424,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>120</v>
       </c>
@@ -2278,7 +2440,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>122</v>
       </c>
@@ -2294,7 +2456,7 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>124</v>
       </c>
@@ -2310,7 +2472,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>126</v>
       </c>
@@ -2326,7 +2488,7 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>128</v>
       </c>
@@ -2342,7 +2504,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>130</v>
       </c>
@@ -2358,7 +2520,7 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>132</v>
       </c>
@@ -2374,7 +2536,7 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>134</v>
       </c>
@@ -2390,7 +2552,7 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>136</v>
       </c>
@@ -2406,7 +2568,7 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>138</v>
       </c>
@@ -2422,7 +2584,7 @@
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>140</v>
       </c>
@@ -2438,7 +2600,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>142</v>
       </c>
@@ -2454,7 +2616,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>144</v>
       </c>
@@ -2470,7 +2632,7 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>147</v>
       </c>
@@ -2486,7 +2648,7 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>149</v>
       </c>
@@ -2502,7 +2664,7 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>151</v>
       </c>
@@ -2518,7 +2680,7 @@
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>153</v>
       </c>
@@ -2534,7 +2696,7 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>155</v>
       </c>
@@ -2550,7 +2712,7 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>157</v>
       </c>
@@ -2566,7 +2728,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>159</v>
       </c>
@@ -2582,7 +2744,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>161</v>
       </c>
@@ -2598,7 +2760,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>163</v>
       </c>
@@ -2614,7 +2776,7 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>165</v>
       </c>
@@ -2630,7 +2792,7 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>167</v>
       </c>
@@ -2646,7 +2808,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>169</v>
       </c>
@@ -2662,7 +2824,7 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>171</v>
       </c>
@@ -2678,7 +2840,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>173</v>
       </c>
@@ -2694,7 +2856,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>175</v>
       </c>
@@ -2710,7 +2872,7 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>177</v>
       </c>
@@ -2726,7 +2888,7 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>179</v>
       </c>
@@ -2742,7 +2904,7 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>181</v>
       </c>
@@ -2758,7 +2920,7 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>183</v>
       </c>
@@ -2774,7 +2936,7 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>185</v>
       </c>
@@ -2790,7 +2952,7 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>187</v>
       </c>
@@ -2806,7 +2968,7 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>189</v>
       </c>
@@ -2822,7 +2984,7 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>191</v>
       </c>
@@ -2838,7 +3000,7 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>193</v>
       </c>
@@ -2854,7 +3016,7 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>195</v>
       </c>
@@ -2870,7 +3032,7 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>197</v>
       </c>
@@ -2886,7 +3048,7 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>198</v>
       </c>
@@ -2902,7 +3064,7 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>199</v>
       </c>
@@ -2918,7 +3080,7 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>200</v>
       </c>
@@ -2934,7 +3096,7 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>201</v>
       </c>
@@ -2950,7 +3112,7 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>202</v>
       </c>
@@ -2966,7 +3128,7 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>203</v>
       </c>
@@ -2982,7 +3144,7 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>204</v>
       </c>
@@ -2998,7 +3160,7 @@
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>205</v>
       </c>
@@ -3014,7 +3176,7 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>206</v>
       </c>
@@ -3030,7 +3192,7 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>207</v>
       </c>
@@ -3046,7 +3208,7 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>208</v>
       </c>
@@ -3062,7 +3224,7 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>209</v>
       </c>
@@ -3078,7 +3240,7 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>210</v>
       </c>
@@ -3094,7 +3256,7 @@
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>211</v>
       </c>
@@ -3110,7 +3272,7 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>212</v>
       </c>
@@ -3126,7 +3288,7 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>213</v>
       </c>
@@ -3142,7 +3304,7 @@
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>214</v>
       </c>
@@ -3158,7 +3320,7 @@
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>215</v>
       </c>
@@ -3174,7 +3336,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>216</v>
       </c>
@@ -3190,7 +3352,7 @@
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>217</v>
       </c>
@@ -3206,7 +3368,7 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>218</v>
       </c>
@@ -3222,7 +3384,7 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>219</v>
       </c>
@@ -3238,7 +3400,7 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>220</v>
       </c>
@@ -3254,7 +3416,7 @@
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>221</v>
       </c>
@@ -3270,7 +3432,7 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>222</v>
       </c>
@@ -3286,7 +3448,7 @@
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>223</v>
       </c>
@@ -3302,7 +3464,7 @@
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>224</v>
       </c>
@@ -3318,7 +3480,7 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>225</v>
       </c>
@@ -3334,7 +3496,7 @@
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>226</v>
       </c>
@@ -3350,7 +3512,7 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>227</v>
       </c>
@@ -3366,7 +3528,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>228</v>
       </c>
@@ -3382,7 +3544,7 @@
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>229</v>
       </c>
@@ -3398,7 +3560,7 @@
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>230</v>
       </c>
@@ -3414,7 +3576,7 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>231</v>
       </c>
@@ -3430,7 +3592,7 @@
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>232</v>
       </c>
@@ -3446,7 +3608,7 @@
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>233</v>
       </c>
@@ -3462,7 +3624,7 @@
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>234</v>
       </c>
@@ -3478,7 +3640,7 @@
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>235</v>
       </c>
@@ -3494,7 +3656,7 @@
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>236</v>
       </c>
@@ -3510,7 +3672,7 @@
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>237</v>
       </c>
@@ -3526,7 +3688,7 @@
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>238</v>
       </c>
@@ -3542,7 +3704,7 @@
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>239</v>
       </c>
@@ -3558,7 +3720,7 @@
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>240</v>
       </c>
@@ -3574,7 +3736,7 @@
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>241</v>
       </c>
@@ -3590,7 +3752,7 @@
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>242</v>
       </c>
@@ -3606,7 +3768,7 @@
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>243</v>
       </c>
@@ -3622,7 +3784,7 @@
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>244</v>
       </c>
@@ -3638,7 +3800,7 @@
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>245</v>
       </c>
@@ -3654,7 +3816,7 @@
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>246</v>
       </c>
@@ -3670,7 +3832,7 @@
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>247</v>
       </c>
@@ -3686,7 +3848,7 @@
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>248</v>
       </c>
@@ -3702,7 +3864,7 @@
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>249</v>
       </c>
@@ -3718,7 +3880,7 @@
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>250</v>
       </c>
@@ -3734,7 +3896,7 @@
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>251</v>
       </c>
@@ -3750,7 +3912,7 @@
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>253</v>
       </c>
@@ -3766,7 +3928,7 @@
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>254</v>
       </c>
@@ -3782,7 +3944,7 @@
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>255</v>
       </c>
@@ -3798,7 +3960,7 @@
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>256</v>
       </c>
@@ -3814,7 +3976,7 @@
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>257</v>
       </c>
@@ -3830,7 +3992,7 @@
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>258</v>
       </c>
@@ -3846,7 +4008,7 @@
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>259</v>
       </c>
@@ -3862,7 +4024,7 @@
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>260</v>
       </c>
@@ -3878,7 +4040,7 @@
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>261</v>
       </c>
@@ -3894,7 +4056,7 @@
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>262</v>
       </c>
@@ -3910,7 +4072,7 @@
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>263</v>
       </c>
@@ -3926,7 +4088,7 @@
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>264</v>
       </c>
@@ -3942,7 +4104,7 @@
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>265</v>
       </c>
@@ -3958,7 +4120,7 @@
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>266</v>
       </c>
@@ -3974,7 +4136,7 @@
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>267</v>
       </c>
@@ -3990,7 +4152,7 @@
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>268</v>
       </c>
@@ -4006,7 +4168,7 @@
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>269</v>
       </c>
@@ -4022,7 +4184,7 @@
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>270</v>
       </c>
@@ -4038,7 +4200,7 @@
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>271</v>
       </c>
@@ -4054,7 +4216,7 @@
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>272</v>
       </c>
@@ -4070,7 +4232,7 @@
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>273</v>
       </c>
@@ -4086,7 +4248,7 @@
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>274</v>
       </c>
@@ -4102,7 +4264,7 @@
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>275</v>
       </c>
@@ -4118,7 +4280,7 @@
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>276</v>
       </c>
@@ -4134,7 +4296,7 @@
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>277</v>
       </c>
@@ -4150,7 +4312,7 @@
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>278</v>
       </c>
@@ -4166,7 +4328,7 @@
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>279</v>
       </c>
@@ -4182,7 +4344,7 @@
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>280</v>
       </c>
@@ -4198,7 +4360,7 @@
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>281</v>
       </c>
@@ -4214,7 +4376,7 @@
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>282</v>
       </c>
@@ -4230,7 +4392,7 @@
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>283</v>
       </c>
@@ -4246,7 +4408,7 @@
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>284</v>
       </c>
@@ -4262,7 +4424,7 @@
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>285</v>
       </c>
@@ -4278,7 +4440,7 @@
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>286</v>
       </c>
@@ -4294,7 +4456,7 @@
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>287</v>
       </c>
@@ -4310,7 +4472,7 @@
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>288</v>
       </c>
@@ -4326,7 +4488,7 @@
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>289</v>
       </c>
@@ -4342,7 +4504,7 @@
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>290</v>
       </c>
@@ -4358,12 +4520,12 @@
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>291</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>196</v>
+        <v>293</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>6</v>
@@ -4374,7 +4536,7 @@
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>292</v>
       </c>
@@ -4390,7 +4552,7 @@
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>294</v>
       </c>
@@ -4406,7 +4568,7 @@
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>295</v>
       </c>
@@ -4422,7 +4584,7 @@
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>296</v>
       </c>
@@ -4438,7 +4600,7 @@
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>297</v>
       </c>
@@ -4454,7 +4616,7 @@
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>298</v>
       </c>
@@ -4470,7 +4632,391 @@
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
     </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A200" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A203" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A204" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A205" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A206" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A207" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A208" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A209" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A216" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F196">
+      <sortCondition ref="B1:B196"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
